--- a/data/VCEA _goals_metadata.xlsx
+++ b/data/VCEA _goals_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyung\Documents\GitHub\postgres-etl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9AE531-C3DA-4172-BB1F-DB3D636F3370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94FDBB-4CD7-4160-8B96-D1D4F2651753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F4F2C63F-08B1-4184-B765-CCB08D22B2EA}"/>
+    <workbookView xWindow="17904" yWindow="5484" windowWidth="8640" windowHeight="4224" xr2:uid="{F4F2C63F-08B1-4184-B765-CCB08D22B2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="57">
   <si>
     <t>db_table_name</t>
   </si>
@@ -45,18 +45,6 @@
     <t xml:space="preserve">dominion_rps </t>
   </si>
   <si>
-    <t>apco_onshore_wind_and_solar_MW</t>
-  </si>
-  <si>
-    <t>dominion_onshore_wind_and_solar_MW</t>
-  </si>
-  <si>
-    <t>apco_storage_MW</t>
-  </si>
-  <si>
-    <t>dominion_storage_MW</t>
-  </si>
-  <si>
     <t>apco_energy_efficiency_as_share_of_2019_sales</t>
   </si>
   <si>
@@ -132,18 +120,6 @@
     <t>"c("dominion_rps"),c("Dominion Renewable Portfolio Standards")"</t>
   </si>
   <si>
-    <t>"c("apco_onshore_wind_and_solar_MW"),c("Appalachian Power Company Onshore Wind and Solar Targets")"</t>
-  </si>
-  <si>
-    <t>"c("dominion_onshore_wind_and_solar_MW"),c("Dominion Onshore Wind and Solar Targets")"</t>
-  </si>
-  <si>
-    <t>"c("apco_storage_MW"),c("Appalachian Power Company Energy Storage Targets)"</t>
-  </si>
-  <si>
-    <t>"c("dominion_storage_MW"),c("Dominion Energy Storage Targets)"</t>
-  </si>
-  <si>
     <t>"c("apco_energy_efficiency_as_share_of_2019_sales"),c("Appalachian Power Company Energy Efficiency Targets as Percentage of Sales"</t>
   </si>
   <si>
@@ -199,6 +175,33 @@
   </si>
   <si>
     <t>"Data received from Word document "Updated VA Clean Energy legislation Memo 2020-05-09""</t>
+  </si>
+  <si>
+    <t>apco_onshore_wind_and_solar_mw</t>
+  </si>
+  <si>
+    <t>"c("apco_onshore_wind_and_solar_mw"),c("Appalachian Power Company Onshore Wind and Solar Targets")"</t>
+  </si>
+  <si>
+    <t>dominion_onshore_wind_and_solar_mw</t>
+  </si>
+  <si>
+    <t>"c("dominion_onshore_wind_and_solar_mw"),c("Dominion Onshore Wind and Solar Targets")"</t>
+  </si>
+  <si>
+    <t>apco_storage_mw</t>
+  </si>
+  <si>
+    <t>"c("apco_storage_mw"),c("Appalachian Power Company Energy Storage Targets)"</t>
+  </si>
+  <si>
+    <t>"c("dominion_storage_mw"),c("Dominion Energy Storage Targets)"</t>
+  </si>
+  <si>
+    <t>dominion_storage_mw</t>
+  </si>
+  <si>
+    <t>"mw"</t>
   </si>
 </sst>
 </file>
@@ -556,366 +559,3508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591C12C7-EF3E-4BDB-9FC5-378F91040026}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M1032202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.3125" customWidth="1"/>
-    <col min="2" max="2" width="25.3671875" customWidth="1"/>
-    <col min="3" max="3" width="23.89453125" customWidth="1"/>
-    <col min="4" max="4" width="20.68359375" customWidth="1"/>
-    <col min="5" max="5" width="31.05078125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.5234375" customWidth="1"/>
-    <col min="8" max="8" width="21.578125" customWidth="1"/>
-    <col min="9" max="9" width="41.41796875" customWidth="1"/>
-    <col min="10" max="10" width="48.3671875" customWidth="1"/>
+    <col min="1" max="1" width="40.47265625" customWidth="1"/>
+    <col min="2" max="2" width="19.83984375" customWidth="1"/>
+    <col min="3" max="3" width="20.62890625" customWidth="1"/>
+    <col min="4" max="4" width="30.05078125" customWidth="1"/>
+    <col min="6" max="6" width="14.578125" customWidth="1"/>
+    <col min="7" max="7" width="21.83984375" customWidth="1"/>
+    <col min="8" max="8" width="23.15625" customWidth="1"/>
+    <col min="13" max="13" width="24.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="98.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="63.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="99.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="94.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="89.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="66.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="113.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="132.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>55</v>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16385" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16385" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16386" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16386" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16387" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16387" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16388" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16388" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16389" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16389" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16390" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16390" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16391" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16391" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16392" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16392" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16393" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16393" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16394" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16394" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32769" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32769" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32770" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32770" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32771" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32771" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32772" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32772" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32773" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32773" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32774" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32774" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32775" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32775" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32776" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32776" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32777" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32777" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32778" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32778" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49153" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49153" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49154" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49154" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49155" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49155" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49156" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49156" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49157" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49157" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49158" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49158" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49159" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49159" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49160" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49160" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49161" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49161" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49162" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49162" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65537" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65537" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65538" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65538" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65539" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65539" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65540" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65540" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65541" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65541" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65542" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65542" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65543" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65543" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65544" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65544" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65545" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65545" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65546" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65546" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81921" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81921" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81922" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81922" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81923" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81923" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81924" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81924" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81925" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81925" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81926" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81926" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81927" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81927" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81928" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81928" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81929" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81929" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81930" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81930" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98305" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98305" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98306" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98306" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98307" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98307" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98308" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98308" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98309" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98309" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98310" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98310" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98311" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98311" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98312" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98312" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98313" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98313" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98314" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98314" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114689" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114689" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114690" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114690" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114691" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114691" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114692" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114692" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114693" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114693" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114694" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114694" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114695" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114695" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114696" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114696" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114697" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114697" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114698" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114698" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131073" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131073" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131074" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131074" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131075" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131075" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131076" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131076" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131077" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131077" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131078" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131078" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131079" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131079" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131080" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131080" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131081" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131081" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131082" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131082" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147457" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147457" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147458" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147458" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147459" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147459" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147460" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147460" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147461" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147461" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147462" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147462" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147463" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147463" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147464" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147464" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147465" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147465" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147466" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147466" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163841" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163841" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163842" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163842" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163843" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163843" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163844" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163844" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163845" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163845" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163846" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163846" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163847" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163847" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163848" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163848" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163849" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163849" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163850" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163850" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180225" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180225" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180226" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180226" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180227" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180227" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180228" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180228" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180229" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180229" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180230" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180230" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180231" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180231" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180232" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180232" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180233" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180233" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180234" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180234" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196609" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196609" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196610" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196610" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196611" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196611" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196612" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196612" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196613" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196613" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196614" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196614" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196615" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196615" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196616" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196616" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196617" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196617" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196618" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196618" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212993" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212993" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212994" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212994" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212995" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212995" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212996" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212996" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212997" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212997" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212998" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212998" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212999" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212999" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213000" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213000" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213001" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213001" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213002" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213002" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229377" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229377" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229378" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229378" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229379" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229379" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229380" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229380" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229381" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229381" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229382" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229382" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229383" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229383" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229384" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229384" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229385" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229385" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229386" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229386" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245761" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245761" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245762" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245762" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245763" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245763" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245764" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245764" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245765" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245765" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245766" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245766" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245767" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245767" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245768" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245768" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245769" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245769" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245770" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245770" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="262145" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262145" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262146" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262146" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262147" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262147" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262148" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262148" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262149" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262149" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262150" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262150" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262151" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262151" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262152" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262152" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262153" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262153" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="262154" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262154" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278529" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278529" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278530" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278530" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278531" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278531" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278532" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278532" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278533" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278533" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278534" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278534" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278535" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278535" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278536" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278536" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278537" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278537" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278538" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278538" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294913" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294913" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="294914" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294914" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294915" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294915" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294916" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294916" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294917" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294917" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294918" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294918" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294919" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294919" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294920" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294920" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294921" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294921" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294922" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294922" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="311297" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311297" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311298" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311298" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="311299" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311299" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311300" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311300" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311301" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311301" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311302" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311302" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311303" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311303" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311304" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311304" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311305" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311305" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="311306" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311306" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="327681" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327681" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327682" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327682" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="327683" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327683" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327684" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327684" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327685" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327685" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327686" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327686" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327687" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327687" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327688" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327688" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327689" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327689" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="327690" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327690" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344065" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344065" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="344066" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344066" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="344067" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344067" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344068" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344068" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344069" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344069" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344070" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344070" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344071" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344071" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344072" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344072" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344073" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344073" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344074" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344074" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360449" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360449" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="360450" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360450" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="360451" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360451" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360452" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360452" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360453" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360453" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360454" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360454" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360455" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360455" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360456" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360456" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360457" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360457" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360458" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360458" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="376833" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376833" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="376834" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376834" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="376835" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376835" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376836" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376836" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376837" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376837" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376838" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376838" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376839" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376839" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376840" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376840" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376841" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376841" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="376842" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376842" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="393217" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393217" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="393218" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393218" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="393219" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393219" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393220" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393220" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393221" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393221" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393222" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393222" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393223" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393223" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393224" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393224" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393225" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393225" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="393226" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393226" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="409601" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409601" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409602" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409602" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="409603" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409603" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409604" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409604" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409605" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409605" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409606" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409606" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409607" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409607" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409608" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409608" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409609" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409609" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="409610" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409610" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="425985" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425985" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="425986" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425986" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="425987" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425987" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425988" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425988" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425989" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425989" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425990" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425990" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425991" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425991" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425992" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425992" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425993" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425993" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="425994" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425994" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="442369" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442369" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="442370" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442370" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="442371" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442371" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442372" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442372" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442373" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442373" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442374" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442374" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442375" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442375" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442376" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442376" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442377" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442377" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="442378" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442378" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="458753" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458753" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="458754" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458754" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="458755" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458755" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458756" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458756" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458757" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458757" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458758" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458758" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458759" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458759" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458760" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458760" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458761" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458761" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="458762" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458762" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="475137" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475137" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="475138" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475138" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="475139" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475139" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475140" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475140" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475141" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475141" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475142" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475142" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475143" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475143" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475144" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475144" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475145" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475145" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="475146" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475146" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="491521" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491521" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="491522" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491522" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491523" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491523" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491524" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491524" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491525" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491525" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491526" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491526" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491527" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491527" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491528" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491528" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491529" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491529" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="491530" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491530" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="507905" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507905" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="507906" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507906" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="507907" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507907" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507908" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507908" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507909" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507909" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507910" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507910" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507911" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507911" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507912" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507912" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507913" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507913" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="507914" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507914" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="524289" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524289" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524290" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524290" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="524291" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524291" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524292" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524292" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524293" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524293" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524294" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524294" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524295" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524295" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524296" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524296" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524297" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524297" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="524298" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524298" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540673" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540673" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="540674" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540674" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="540675" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540675" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540676" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540676" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540677" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540677" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540678" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540678" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540679" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540679" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540680" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540680" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540681" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540681" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540682" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E540682" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="557057" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557057" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="557058" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557058" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="557059" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557059" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557060" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557060" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557061" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557061" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557062" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557062" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557063" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557063" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557064" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557064" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557065" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557065" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="557066" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E557066" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="573441" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573441" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573442" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573442" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="573443" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573443" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573444" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573444" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573445" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573445" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573446" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573446" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573447" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573447" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573448" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573448" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573449" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573449" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="573450" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E573450" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="589825" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589825" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="589826" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589826" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="589827" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589827" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589828" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589828" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589829" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589829" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589830" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589830" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589831" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589831" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589832" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589832" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="589833" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589833" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="589834" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E589834" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="606209" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606209" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="606210" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606210" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="606211" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606211" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606212" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606212" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606213" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606213" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606214" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606214" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606215" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606215" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606216" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606216" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606217" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606217" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="606218" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E606218" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="622593" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622593" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="622594" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622594" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="622595" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622595" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622596" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622596" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622597" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622597" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622598" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622598" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622599" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622599" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622600" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622600" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622601" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622601" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="622602" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E622602" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="638977" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638977" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="638978" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638978" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="638979" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638979" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638980" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638980" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638981" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638981" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638982" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638982" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638983" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638983" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638984" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638984" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638985" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638985" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="638986" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E638986" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="655361" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655361" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655362" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655362" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="655363" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655363" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655364" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655364" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655365" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655365" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655366" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655366" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655367" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655367" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655368" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655368" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="655369" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655369" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="655370" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E655370" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="671745" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671745" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="671746" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671746" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="671747" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671747" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="671748" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671748" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="671749" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671749" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="671750" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671750" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="671751" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671751" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="671752" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671752" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="671753" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671753" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="671754" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E671754" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="688129" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688129" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688130" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688130" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="688131" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688131" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688132" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688132" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688133" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688133" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688134" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688134" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688135" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688135" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688136" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688136" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688137" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688137" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="688138" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E688138" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="704513" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704513" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="704514" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704514" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="704515" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704515" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="704516" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704516" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="704517" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704517" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="704518" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704518" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="704519" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704519" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="704520" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704520" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="704521" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704521" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="704522" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E704522" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="720897" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720897" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="720898" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720898" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="720899" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720899" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720900" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720900" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720901" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720901" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720902" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720902" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720903" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720903" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720904" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720904" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720905" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720905" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="720906" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E720906" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="737281" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737281" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="737282" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737282" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="737283" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737283" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="737284" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737284" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="737285" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737285" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="737286" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737286" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="737287" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737287" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="737288" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737288" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="737289" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737289" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="737290" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E737290" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="753665" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753665" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="753666" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753666" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="753667" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753667" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753668" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753668" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753669" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753669" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753670" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753670" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753671" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753671" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753672" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753672" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753673" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753673" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="753674" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E753674" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="770049" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770049" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="770050" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770050" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="770051" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770051" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="770052" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770052" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="770053" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770053" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="770054" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770054" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="770055" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770055" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="770056" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770056" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="770057" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770057" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="770058" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E770058" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="786433" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786433" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="786434" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786434" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="786435" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786435" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="786436" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786436" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="786437" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786437" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="786438" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786438" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="786439" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786439" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="786440" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786440" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="786441" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786441" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="786442" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E786442" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="802817" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802817" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="802818" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802818" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="802819" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802819" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="802820" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802820" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="802821" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802821" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="802822" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802822" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="802823" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802823" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="802824" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802824" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="802825" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802825" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="802826" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E802826" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="819201" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819201" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="819202" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819202" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="819203" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819203" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="819204" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819204" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="819205" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819205" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="819206" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819206" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="819207" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819207" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="819208" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819208" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="819209" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819209" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="819210" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E819210" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="835585" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835585" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="835586" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835586" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="835587" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835587" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="835588" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835588" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="835589" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835589" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="835590" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835590" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="835591" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835591" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="835592" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835592" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="835593" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835593" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="835594" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E835594" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="851969" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851969" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="851970" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851970" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="851971" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851971" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851972" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851972" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851973" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851973" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851974" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851974" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851975" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851975" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851976" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851976" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851977" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851977" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="851978" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E851978" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="868353" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868353" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="868354" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868354" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="868355" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868355" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868356" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868356" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868357" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868357" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868358" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868358" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868359" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868359" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868360" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868360" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868361" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868361" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="868362" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E868362" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="884737" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884737" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="884738" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884738" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="884739" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884739" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="884740" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884740" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="884741" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884741" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="884742" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884742" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="884743" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884743" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="884744" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884744" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="884745" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884745" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="884746" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E884746" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="901121" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901121" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="901122" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901122" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="901123" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901123" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="901124" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901124" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="901125" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901125" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="901126" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901126" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="901127" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901127" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="901128" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901128" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="901129" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901129" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="901130" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E901130" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="917505" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917505" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="917506" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917506" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="917507" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917507" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917508" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917508" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917509" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917509" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917510" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917510" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917511" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917511" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917512" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917512" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917513" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917513" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="917514" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E917514" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="933889" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933889" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="933890" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933890" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="933891" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933891" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="933892" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933892" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="933893" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933893" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="933894" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933894" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="933895" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933895" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="933896" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933896" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="933897" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933897" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="933898" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E933898" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="950273" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950273" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="950274" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950274" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="950275" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950275" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950276" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950276" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950277" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950277" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950278" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950278" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950279" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950279" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950280" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950280" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="950281" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950281" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="950282" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E950282" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="966657" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966657" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="966658" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966658" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="966659" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966659" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966660" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966660" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966661" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966661" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966662" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966662" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966663" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966663" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966664" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966664" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966665" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966665" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="966666" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E966666" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="983041" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983041" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="983042" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983042" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="983043" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983043" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="983044" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983044" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="983045" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983045" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="983046" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983046" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="983047" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983047" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="983048" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983048" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="983049" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983049" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="983050" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E983050" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="999425" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999425" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="999426" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999426" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="999427" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999427" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="999428" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999428" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="999429" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999429" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="999430" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999430" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="999431" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999431" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="999432" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999432" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="999433" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999433" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="999434" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E999434" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1015809" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015809" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1015810" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015810" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1015811" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015811" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1015812" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015812" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1015813" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015813" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1015814" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015814" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1015815" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015815" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1015816" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015816" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1015817" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015817" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1015818" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1015818" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1032193" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032193" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1032194" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032194" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1032195" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032195" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1032196" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032196" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1032197" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032197" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1032198" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032198" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1032199" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032199" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1032200" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032200" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1032201" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032201" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1032202" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1032202" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
